--- a/Data/Metadata/Angiosperms/powo/Xyridaceae.xlsx
+++ b/Data/Metadata/Angiosperms/powo/Xyridaceae.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,12 +432,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>rigidiformis</t>
+          <t>augusto-coburgi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Malme</t>
+          <t>Szyszyl. ex Beck</t>
         </is>
       </c>
       <c r="E2" t="b">
@@ -450,7 +450,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Xyris_rigidiformis</t>
+          <t>Xyris_augusto-coburgi</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -465,12 +465,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:270148-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:871343-1</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:270148-2</t>
+          <t>urn:lsid:ipni.org:names:871343-1</t>
         </is>
       </c>
     </row>
@@ -487,12 +487,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>hatschhachii</t>
+          <t>rigidiformis</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>L.B.Sm. &amp; Downs</t>
+          <t>Malme</t>
         </is>
       </c>
       <c r="E3" t="b">
@@ -505,7 +505,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Xyris_hatschhachii</t>
+          <t>Xyris_rigidiformis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -520,12 +520,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:270070-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:270148-2</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:270070-2</t>
+          <t>urn:lsid:ipni.org:names:270148-2</t>
         </is>
       </c>
     </row>
@@ -542,12 +542,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>albescens</t>
+          <t>hatschhachii</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Steyerm.</t>
+          <t>L.B.Sm. &amp; Downs</t>
         </is>
       </c>
       <c r="E4" t="b">
@@ -560,7 +560,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Xyris_albescens</t>
+          <t>Xyris_hatschhachii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -575,12 +575,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>/taxon/urn:lsid:ipni.org:names:269970-2</t>
+          <t>/taxon/urn:lsid:ipni.org:names:270070-2</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>urn:lsid:ipni.org:names:269970-2</t>
+          <t>urn:lsid:ipni.org:names:270070-2</t>
         </is>
       </c>
     </row>
@@ -597,12 +597,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>bicephala</t>
+          <t>albescens</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Gleason</t>
+          <t>Steyerm.</t>
         </is>
       </c>
       <c r="E5" t="b">
@@ -615,25 +615,80 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
+          <t>Xyris_albescens</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Species</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>/taxon/urn:lsid:ipni.org:names:269970-2</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>urn:lsid:ipni.org:names:269970-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Xyridaceae</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Xyris</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>bicephala</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Gleason</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantae</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Xyris_bicephala</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Species</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t xml:space="preserve"> &lt;b&gt;Location&lt;/b&gt;: &lt;em&gt;Brazil&lt;/em&gt;</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>/taxon/urn:lsid:ipni.org:names:269990-2</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>urn:lsid:ipni.org:names:269990-2</t>
         </is>
